--- a/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E57339-EEC1-43D8-A917-E1556E0C4EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1884452C-6256-461F-9015-EADE526BA1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
   <si>
     <t>Source Name</t>
   </si>
@@ -647,6 +647,9 @@
   <si>
     <t>Authors Role Term Source REF</t>
   </si>
+  <si>
+    <t>Raw Data File</t>
+  </si>
 </sst>
 </file>
 
@@ -657,7 +660,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,12 +675,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -809,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -853,6 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +975,7 @@
     <tableColumn id="34" xr3:uid="{02FFA839-AB2E-4256-AF70-683903B0E222}" name="Unit (#4)" dataDxfId="3"/>
     <tableColumn id="35" xr3:uid="{1DE3AD7A-94C9-4D6D-A620-068505BBA80F}" name="Term Source REF (PATO:0001309)" dataDxfId="2"/>
     <tableColumn id="36" xr3:uid="{89607A56-7C4A-4A91-9B9D-E822F9611BED}" name="Term Accession Number (PATO:0001309)" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{8EFFFFD9-A831-4B22-BB48-207F2316916A}" name="Data File Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F570B6A4-D399-4AE6-A741-7062E131420B}" name="Raw Data File" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1281,7 +1279,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="632" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="630" row="2">
@@ -1314,46 +1312,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.140625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="29" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="21.85546875" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="29" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="21.85546875" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="29" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>137</v>
       </c>
       <c r="AJ1" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
       <c r="AI2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="17"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1632,7 +1632,7 @@
       <c r="AI3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AJ3" s="3"/>
+      <c r="AJ3" s="17"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1716,7 +1716,7 @@
       <c r="AI4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AJ4" s="3"/>
+      <c r="AJ4" s="17"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1800,7 +1800,7 @@
       <c r="AI5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="17"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1884,7 +1884,7 @@
       <c r="AI6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AJ6" s="3"/>
+      <c r="AJ6" s="17"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1968,7 +1968,7 @@
       <c r="AI7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AJ7" s="3"/>
+      <c r="AJ7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA011F-5496-4EB2-AF3E-FA3119C26B5A}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1884452C-6256-461F-9015-EADE526BA1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9021DC0-6A89-4127-BDFD-62E31601BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9021DC0-6A89-4127-BDFD-62E31601BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5474B77E-DF7F-43EF-A71C-90EA68544743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{757FE7E8-89EB-4D39-A36E-5AC04BD97F83}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{EF8103DD-BD29-45D6-8FE5-FB39C31CF7CF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{77FDCCA6-D67F-4E58-89AA-D67F0A0A6506}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{EAEF7854-EBC9-4D93-AFDC-6E85BDFFC2B1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{C4C5D387-D20D-4521-BDBC-34438A79BB69}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{709D9C4A-3299-4C55-811E-D998549012B4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{116C213B-A688-4024-84DC-BF82032D2B6B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{76611217-FF2D-42A1-B390-FC5E2F95EEF9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{67A2A05B-82AD-4A3E-B0C8-E2D5DCA334E2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
   <si>
     <t>Source Name</t>
   </si>
@@ -173,15 +173,6 @@
   </si>
   <si>
     <t>Parameter [sample volume]</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1000005)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000005)</t>
   </si>
   <si>
     <t>Unit (#2)</t>
@@ -630,9 +621,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000010</t>
   </si>
   <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -649,6 +637,21 @@
   </si>
   <si>
     <t>Raw Data File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter [sample volume] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0010013)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0010013)</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
   </si>
 </sst>
 </file>
@@ -853,7 +856,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -905,10 +908,10 @@
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
@@ -956,10 +959,10 @@
     <tableColumn id="15" xr3:uid="{4F0B12BE-249B-4D58-A265-FD682543A786}" name="Parameter [Fixed modification]"/>
     <tableColumn id="16" xr3:uid="{5325A5B7-14BA-4F7D-A456-5D7445559494}" name="Term Source REF (MS:1003021)"/>
     <tableColumn id="17" xr3:uid="{86C6CDEE-968B-4E81-920C-A94BD617C970}" name="Term Accession Number (MS:1003021)"/>
-    <tableColumn id="18" xr3:uid="{6A0CA97B-E9F1-431C-A6AF-DF7ACC8431DD}" name="Parameter [sample volume]" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{CFC77986-50BE-4252-972C-126098847C78}" name="Unit" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{5FBAC324-2145-4D38-84E7-4339176B0E80}" name="Term Source REF (MS:1000005)" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{003956C7-0EC0-4C7C-9176-0E4706A67182}" name="Term Accession Number (MS:1000005)" dataDxfId="16"/>
+    <tableColumn id="37" xr3:uid="{459EBC84-3040-4B1E-985F-B606ED0AB3FD}" name="Parameter [sample volume] " dataDxfId="19"/>
+    <tableColumn id="38" xr3:uid="{63846E1C-CCCE-4155-96F3-B0FBEA52F762}" name="Unit " dataDxfId="18"/>
+    <tableColumn id="39" xr3:uid="{3E837FFA-153B-4ADA-83A1-080BC4410BC3}" name="Term Source REF (DPBO:0010013)" dataDxfId="17"/>
+    <tableColumn id="40" xr3:uid="{5E48617C-5EA3-4F57-B9A5-90EEE2D679A2}" name="Term Accession Number (DPBO:0010013)" dataDxfId="16"/>
     <tableColumn id="22" xr3:uid="{2F52B68D-41D8-4AAD-878A-8513090E8CD3}" name="Parameter [injection volume]" dataDxfId="15"/>
     <tableColumn id="23" xr3:uid="{C4646081-5BEA-4168-AE8F-EC37194D2E23}" name="Unit (#2)" dataDxfId="14"/>
     <tableColumn id="24" xr3:uid="{C068DE1E-FC95-4705-9EC5-F0C4BDDF0542}" name="Term Source REF (#2)" dataDxfId="13"/>
@@ -1279,7 +1282,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="630" row="2">
@@ -1312,48 +1315,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="29" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="31" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="29" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="32.5703125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="40.28515625" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1373,10 +1380,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1406,264 +1413,251 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="R1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>29</v>
-      </c>
       <c r="AH1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AI1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" t="s">
+        <v>143</v>
       </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>150</v>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ2" s="17"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
         <v>138</v>
       </c>
-      <c r="J3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" t="s">
-        <v>147</v>
+      <c r="P3" t="s">
+        <v>144</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>150</v>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ3" s="17"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="16">
         <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
         <v>138</v>
@@ -1671,302 +1665,303 @@
       <c r="M4" t="s">
         <v>139</v>
       </c>
+      <c r="N4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" t="s">
+        <v>136</v>
+      </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>150</v>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ4" s="17"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M5" t="s">
         <v>140</v>
       </c>
+      <c r="N5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" t="s">
+        <v>137</v>
+      </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>150</v>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ5" s="17"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" t="s">
         <v>138</v>
       </c>
-      <c r="J6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" t="s">
-        <v>142</v>
+      <c r="P6" t="s">
+        <v>139</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>150</v>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ6" s="17"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" t="s">
         <v>124</v>
       </c>
-      <c r="I7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" t="s">
         <v>145</v>
       </c>
-      <c r="K7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" t="s">
-        <v>148</v>
-      </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>150</v>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ7" s="17"/>
     </row>
@@ -1983,10 +1978,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -1997,107 +1992,107 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2107,7 +2102,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2117,83 +2112,83 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B27" s="12"/>
     </row>
@@ -2209,7 +2204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -2227,40 +2222,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2268,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2290,29 +2285,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -2322,29 +2317,29 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -2354,22 +2349,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -2380,27 +2375,27 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -2410,27 +2405,27 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -2440,22 +2435,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -2463,23 +2458,23 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2487,25 +2482,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -2513,57 +2508,57 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -2571,16 +2566,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>

--- a/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5474B77E-DF7F-43EF-A71C-90EA68544743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F423D-ED5C-4A95-B786-7AD40E349C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="162">
   <si>
     <t>Source Name</t>
   </si>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA011F-5496-4EB2-AF3E-FA3119C26B5A}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,7 +1990,7 @@
     <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -2038,13 +2038,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2052,25 +2052,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -2089,8 +2089,11 @@
       <c r="F12" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2102,9 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -2109,14 +2113,15 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>

--- a/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F423D-ED5C-4A95-B786-7AD40E349C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E69BE-926B-4C8C-BC20-92BF6431A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="166">
   <si>
     <t>Source Name</t>
   </si>
@@ -652,6 +652,18 @@
   </si>
   <si>
     <t>1.1.7</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
+  </si>
+  <si>
+    <t>DPBO</t>
   </si>
 </sst>
 </file>
@@ -1319,51 +1331,51 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.88671875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.88671875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="32.5703125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.5546875" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -1555,7 +1567,7 @@
       </c>
       <c r="AJ2" s="17"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>106</v>
       </c>
@@ -1637,7 +1649,7 @@
       </c>
       <c r="AJ3" s="17"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>107</v>
       </c>
@@ -1719,7 +1731,7 @@
       </c>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>108</v>
       </c>
@@ -1801,7 +1813,7 @@
       </c>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1883,7 +1895,7 @@
       </c>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>110</v>
       </c>
@@ -1978,19 +1990,19 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -2038,13 +2050,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2052,25 +2064,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -2093,35 +2109,43 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -2129,7 +2153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2137,61 +2161,61 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>155</v>
       </c>
@@ -2209,23 +2233,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -2285,7 +2309,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2341,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -2349,7 +2373,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2375,7 +2399,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -2405,7 +2429,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -2435,7 +2459,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -2461,7 +2485,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
@@ -2485,7 +2509,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>83</v>
       </c>
@@ -2511,7 +2535,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
@@ -2543,7 +2567,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
@@ -2569,7 +2593,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>

--- a/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E69BE-926B-4C8C-BC20-92BF6431A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9FF000-AACD-4D44-8C75-7E913CF2F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="164">
   <si>
     <t>Source Name</t>
   </si>
@@ -658,12 +658,6 @@
   </si>
   <si>
     <t>NCIT</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1984,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2060,25 +2054,19 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -2105,9 +2093,7 @@
       <c r="F12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2120,9 +2106,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -2135,9 +2119,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">

--- a/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY02_ProteomicsMassSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9FF000-AACD-4D44-8C75-7E913CF2F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E32E8-2D40-456A-A106-7E4C2F5ACC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
   <si>
     <t>Source Name</t>
   </si>
@@ -301,16 +301,7 @@
     <t>PRIDE</t>
   </si>
   <si>
-    <t>Assay</t>
-  </si>
-  <si>
     <t>Proteomics</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>Mass spectrometry</t>
   </si>
   <si>
     <t>MS</t>
@@ -658,6 +649,24 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>OBI:0000070</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>EFO:0001444</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>NCIT:C17156</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1395,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1419,16 +1428,16 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" t="s">
         <v>157</v>
-      </c>
-      <c r="R1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T1" t="s">
-        <v>160</v>
       </c>
       <c r="U1" t="s">
         <v>18</v>
@@ -1470,504 +1479,504 @@
         <v>26</v>
       </c>
       <c r="AH1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AJ1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ2" s="17"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" t="s">
         <v>135</v>
       </c>
-      <c r="M3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" t="s">
-        <v>138</v>
-      </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ3" s="17"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="16">
         <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ4" s="17"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ5" s="17"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" t="s">
         <v>135</v>
       </c>
-      <c r="M6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" t="s">
-        <v>138</v>
-      </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ6" s="17"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" t="s">
         <v>121</v>
       </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" t="s">
         <v>142</v>
-      </c>
-      <c r="N7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P7" t="s">
-        <v>145</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ7" s="17"/>
     </row>
@@ -1984,7 +1993,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2026,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2079,32 +2088,36 @@
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="C13" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -2114,7 +2127,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2132,7 +2145,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2140,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2181,25 +2194,25 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" s="12"/>
     </row>
@@ -2233,40 +2246,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2274,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2296,29 +2309,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -2328,29 +2341,29 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -2360,22 +2373,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -2386,27 +2399,27 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -2416,27 +2429,27 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -2446,22 +2459,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -2472,20 +2485,20 @@
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2493,25 +2506,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -2522,29 +2535,29 @@
         <v>23</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -2554,22 +2567,22 @@
         <v>27</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -2580,13 +2593,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
